--- a/팀플/population.xlsx
+++ b/팀플/population.xlsx
@@ -104,7 +104,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017년 12월인구</t>
+    <r>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>월인구</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -154,9 +186,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -441,7 +472,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -458,7 +489,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>73594</v>
       </c>
     </row>
@@ -466,7 +497,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>60412</v>
       </c>
     </row>
@@ -474,7 +505,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>107666</v>
       </c>
     </row>
@@ -482,7 +513,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>132902</v>
       </c>
     </row>
@@ -490,7 +521,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>160798</v>
       </c>
     </row>
@@ -498,7 +529,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>159938</v>
       </c>
     </row>
@@ -506,7 +537,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>179132</v>
       </c>
     </row>
@@ -514,7 +545,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>187112</v>
       </c>
     </row>
@@ -522,7 +553,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>142533</v>
       </c>
     </row>
@@ -530,7 +561,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>137378</v>
       </c>
     </row>
@@ -538,7 +569,7 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>217619</v>
       </c>
     </row>
@@ -546,7 +577,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>202839</v>
       </c>
     </row>
@@ -554,7 +585,7 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>137266</v>
       </c>
     </row>
@@ -562,7 +593,7 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>169408</v>
       </c>
     </row>
@@ -570,7 +601,7 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>176649</v>
       </c>
     </row>
@@ -578,7 +609,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>254257</v>
       </c>
     </row>
@@ -586,7 +617,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>171570</v>
       </c>
     </row>
@@ -594,7 +625,7 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>106066</v>
       </c>
     </row>
@@ -602,7 +633,7 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>167355</v>
       </c>
     </row>
@@ -610,7 +641,7 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>172995</v>
       </c>
     </row>
@@ -618,7 +649,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>255352</v>
       </c>
     </row>
@@ -626,7 +657,7 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>173594</v>
       </c>
     </row>
@@ -634,7 +665,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>231612</v>
       </c>
     </row>
@@ -642,7 +673,7 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>264628</v>
       </c>
     </row>
@@ -650,7 +681,7 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>177407</v>
       </c>
     </row>
@@ -658,7 +689,7 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <f>AVERAGE(B2:B26)</f>
         <v>168803.28</v>
       </c>
